--- a/backend/detailst.xlsx
+++ b/backend/detailst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\IA\data-mining-project\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB42704-2F74-40F5-8B6A-470F2A7992D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C17C2D1-14E0-4EAC-A803-CA4F3C1A13BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4125" yWindow="4290" windowWidth="21600" windowHeight="10995" xr2:uid="{66C7F8B4-8E32-481C-BF42-F6AB36C4229F}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{66C7F8B4-8E32-481C-BF42-F6AB36C4229F}"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" r:id="rId1"/>
@@ -401,58 +401,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,7 +770,7 @@
   <dimension ref="B2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,63 +789,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="17">
+      <c r="B3" s="19"/>
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -886,111 +886,111 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="18">
+      <c r="B5" s="19"/>
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="4">
         <v>5</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="4">
         <v>6</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="4">
         <v>7</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="4">
         <v>8</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="4">
         <v>9</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="4">
         <v>10</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="4">
         <v>11</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="3">
         <v>4</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="3">
         <v>5</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="3">
         <v>7</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1002,18 +1002,18 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1">
         <v>0</v>
       </c>
@@ -1023,70 +1023,70 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1110,14 +1110,14 @@
       <c r="I12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1">
         <v>0</v>
       </c>
@@ -1139,74 +1139,74 @@
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>5</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>6</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="4">
+      <c r="B15" s="19"/>
+      <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>4</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>6</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1">
@@ -1221,17 +1221,17 @@
       <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="1">
         <v>0</v>
       </c>
@@ -1244,73 +1244,73 @@
       <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="4">
+      <c r="B19" s="19"/>
+      <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>4</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>5</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1331,15 +1331,15 @@
       <c r="H20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="1">
         <v>0</v>
       </c>
@@ -1358,59 +1358,59 @@
       <c r="H21" s="1">
         <v>5</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="17">
+      <c r="B23" s="19"/>
+      <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1419,50 +1419,38 @@
       <c r="D24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="13"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E24:N25"/>
-    <mergeCell ref="J12:N13"/>
-    <mergeCell ref="G16:N17"/>
-    <mergeCell ref="J14:N15"/>
-    <mergeCell ref="I18:N19"/>
-    <mergeCell ref="I20:N21"/>
-    <mergeCell ref="F22:N23"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="I2:N3"/>
     <mergeCell ref="K6:N7"/>
     <mergeCell ref="F8:N9"/>
@@ -1474,6 +1462,18 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E24:N25"/>
+    <mergeCell ref="J12:N13"/>
+    <mergeCell ref="G16:N17"/>
+    <mergeCell ref="J14:N15"/>
+    <mergeCell ref="I18:N19"/>
+    <mergeCell ref="I20:N21"/>
+    <mergeCell ref="F22:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
